--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints3.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints3.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.722648905604024e-10</v>
+        <v>1.425520309108036e-10</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>2.756133264240797e-10</v>
+        <v>1.47488874175974e-10</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>2.787824550298412e-10</v>
+        <v>1.520389122358599e-10</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>2.817970197639157e-10</v>
+        <v>1.56236822781354e-10</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>2.846817640125327e-10</v>
+        <v>1.601172835033493e-10</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>2.874614311619211e-10</v>
+        <v>1.637149720927384e-10</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>2.901607645983102e-10</v>
+        <v>1.670645662404144e-10</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.928045077079289e-10</v>
+        <v>1.702007436372698e-10</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>2.954174038770065e-10</v>
+        <v>1.731581819741977e-10</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>2.980241964917721e-10</v>
+        <v>1.759715589420908e-10</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>3.006496289384535e-10</v>
+        <v>1.786755522318407e-10</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>3.033184446032825e-10</v>
+        <v>1.813048395343427e-10</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>3.060553868724867e-10</v>
+        <v>1.838940985404884e-10</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>3.088851991322955e-10</v>
+        <v>1.864780069411706e-10</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>3.118326247689377e-10</v>
+        <v>1.89091242427282e-10</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>3.149224071686429e-10</v>
+        <v>1.917684826897156e-10</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>3.181792897176399e-10</v>
+        <v>1.945444054193642e-10</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>3.216280158021578e-10</v>
+        <v>1.974536883071204e-10</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>3.252933288084259e-10</v>
+        <v>2.005310090438774e-10</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>3.291999721226733e-10</v>
+        <v>2.038110453205277e-10</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>3.333726891311291e-10</v>
+        <v>2.073284748279642e-10</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>3.378362232200224e-10</v>
+        <v>2.111179752570799e-10</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>3.426153177755824e-10</v>
+        <v>2.152142242987674e-10</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>3.47734716184038e-10</v>
+        <v>2.196518996439196e-10</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>3.532191618316186e-10</v>
+        <v>2.244656789834293e-10</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>3.590933981045534e-10</v>
+        <v>2.296902400081894e-10</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>3.653821683890712e-10</v>
+        <v>2.353602604090926e-10</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>3.721102160714013e-10</v>
+        <v>2.415104178770319e-10</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>3.793022845377692e-10</v>
+        <v>2.481753901028965e-10</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>3.869831171744112e-10</v>
+        <v>2.55389854777586e-10</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>3.951774573675527e-10</v>
+        <v>2.631884895919898e-10</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>4.03910048503423e-10</v>
+        <v>2.716059722370009e-10</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>4.132056339682513e-10</v>
+        <v>2.80676980403512e-10</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>4.230889571482666e-10</v>
+        <v>2.904361917824161e-10</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>4.335847614296981e-10</v>
+        <v>3.009182840646059e-10</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>4.44717790198775e-10</v>
+        <v>3.121579349409742e-10</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>4.565127868417263e-10</v>
+        <v>3.24189822102414e-10</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>4.689944947447812e-10</v>
+        <v>3.370486232398178e-10</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>4.821876572941686e-10</v>
+        <v>3.507690160440787e-10</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>4.961170178761181e-10</v>
+        <v>3.653856782060895e-10</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>5.108073198768585e-10</v>
+        <v>3.809332874167429e-10</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>5.26283306682619e-10</v>
+        <v>3.974465213669318e-10</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>5.425697216796287e-10</v>
+        <v>4.14960057747549e-10</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>5.596913082541166e-10</v>
+        <v>4.335085742494871e-10</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>5.776728097923122e-10</v>
+        <v>4.531267485636394e-10</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>5.965389696804444e-10</v>
+        <v>4.738492583808984e-10</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>6.163145313047422e-10</v>
+        <v>4.95710781392157e-10</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>6.37024622860846e-10</v>
+        <v>5.18746300039943e-10</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>6.587881402689668e-10</v>
+        <v>5.430650565610709e-10</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>6.819395157498368e-10</v>
+        <v>5.689469881879736e-10</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>7.068433516418002e-10</v>
+        <v>5.966959255208482e-10</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>7.338642502832028e-10</v>
+        <v>6.266156991598917e-10</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>7.633668140123894e-10</v>
+        <v>6.590101397053011e-10</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>7.957156451677057e-10</v>
+        <v>6.941830777572739e-10</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>8.312753460874964e-10</v>
+        <v>7.32438343916007e-10</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>8.704105191101067e-10</v>
+        <v>7.740797687816973e-10</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>9.134857665738824e-10</v>
+        <v>8.194111829545424e-10</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>9.608656908171683e-10</v>
+        <v>8.68736417034739e-10</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>1.012914894178309e-09</v>
+        <v>9.223593016224845e-10</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.069997978995651e-09</v>
+        <v>9.80583667317976e-10</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>1.132479547607539e-09</v>
+        <v>1.04371334472141e-09</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>1.200724202352317e-09</v>
+        <v>1.112052164432985e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>1.275096545568332e-09</v>
+        <v>1.185903957052897e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>1.355961179593929e-09</v>
+        <v>1.265572553181343e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>1.443682706767452e-09</v>
+        <v>1.351361783418521e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>1.538625729427199e-09</v>
+        <v>1.443575478364581e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>1.641389259095236e-09</v>
+        <v>1.54276363054088e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>1.755084241133317e-09</v>
+        <v>1.652114108894964e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>1.884346469329808e-09</v>
+        <v>1.776416083194689e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>2.033833176349232e-09</v>
+        <v>1.92048123698002e-09</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>2.208201594856112e-09</v>
+        <v>2.089121253790925e-09</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>2.412108957514972e-09</v>
+        <v>2.287147817167366e-09</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>2.650212496990336e-09</v>
+        <v>2.519372610649311e-09</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>2.927169445946726e-09</v>
+        <v>2.790607317776724e-09</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>3.247637037048666e-09</v>
+        <v>3.105663622089569e-09</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>3.616272502960681e-09</v>
+        <v>3.469353207127815e-09</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>4.037733076347291e-09</v>
+        <v>3.886487756431422e-09</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>4.516675989873025e-09</v>
+        <v>4.361878953540361e-09</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>5.057758476202401e-09</v>
+        <v>4.900338481994595e-09</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>5.665637767999944e-09</v>
+        <v>5.506678025334087e-09</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>6.343858057268403e-09</v>
+        <v>6.184581103768152e-09</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>7.083373805765124e-09</v>
+        <v>6.924970453023126e-09</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>7.867179941989803e-09</v>
+        <v>7.71070113092391e-09</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>8.678145864775018e-09</v>
+        <v>8.524500960080906e-09</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>9.499140972952966e-09</v>
+        <v>9.349097763104121e-09</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.031303466535702e-08</v>
+        <v>1.016721936260476e-08</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.110269634081939e-08</v>
+        <v>1.096159358119284e-08</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.185099539817263e-08</v>
+        <v>1.171494824147874e-08</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.254080123624934e-08</v>
+        <v>1.241001116607289e-08</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>1.31549832538821e-08</v>
+        <v>1.302951017758567e-08</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.36764108499035e-08</v>
+        <v>1.355617309862751e-08</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>1.408795342314612e-08</v>
+        <v>1.397272775180878e-08</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.437248037244254e-08</v>
+        <v>1.426190195973991e-08</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>1.451286109662535e-08</v>
+        <v>1.440642354503129e-08</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>1.449357533353921e-08</v>
+        <v>1.439064073309869e-08</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>1.431834719426268e-08</v>
+        <v>1.421826639005883e-08</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>1.400357003581714e-08</v>
+        <v>1.390576180426351e-08</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>1.35658600572497e-08</v>
+        <v>1.346981249873866e-08</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>1.302183345760749e-08</v>
+        <v>1.292710399651023e-08</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.238810643593762e-08</v>
+        <v>1.229432182060416e-08</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>1.16812951912872e-08</v>
+        <v>1.158815149404641e-08</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>1.091801592270337e-08</v>
+        <v>1.08252785398629e-08</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.011488482923363e-08</v>
+        <v>1.002238848107999e-08</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>9.288518109924311e-09</v>
+        <v>9.196166840722836e-09</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>8.455531963822924e-09</v>
+        <v>8.36329914181777e-09</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>7.632542589976579e-09</v>
+        <v>7.540470907390726e-09</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>6.836166187432394e-09</v>
+        <v>6.744367660467656e-09</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>6.083018955237494e-09</v>
+        <v>5.991674924074505e-09</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>5.389717092438992e-09</v>
+        <v>5.299078221237217e-09</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>4.771672861183603e-09</v>
+        <v>4.682035987835168e-09</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>4.227388551692194e-09</v>
+        <v>4.138771529574285e-09</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>3.742891854733339e-09</v>
+        <v>3.654793681292975e-09</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>3.303919412813429e-09</v>
+        <v>3.215314633062436e-09</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>2.898074944866274e-09</v>
+        <v>2.807537629724925e-09</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>2.523738834832041e-09</v>
+        <v>2.430158177479562e-09</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>2.1831495604929e-09</v>
+        <v>2.085986063032959e-09</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>1.878550499089433e-09</v>
+        <v>1.777836297885913e-09</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>1.612160019661091e-09</v>
+        <v>1.508495856507767e-09</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>1.384269479674841e-09</v>
+        <v>1.278591314713873e-09</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.191908265602821e-09</v>
+        <v>1.085092208659204e-09</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>1.031790349982106e-09</v>
+        <v>9.246144596837031e-10</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>9.006297053498302e-10</v>
+        <v>7.937739891273729e-10</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>7.951403042429429e-10</v>
+        <v>6.89186718330032e-10</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>7.120361191985904e-10</v>
+        <v>6.074685686316954e-10</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>6.480311227538487e-10</v>
+        <v>5.45235461372308e-10</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>5.998392874457934e-10</v>
+        <v>4.991033178918144e-10</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>5.641745858115002e-10</v>
+        <v>4.656880595301592e-10</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>5.377509903880454e-10</v>
+        <v>4.416056076272868e-10</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>5.172824737125046e-10</v>
+        <v>4.234718835231421e-10</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>4.994830083219535e-10</v>
+        <v>4.079028085576696e-10</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>4.810665667534682e-10</v>
+        <v>3.915143040708141e-10</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>4.587482744736152e-10</v>
+        <v>3.709235289956471e-10</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>4.308384857722475e-10</v>
+        <v>3.444600143079209e-10</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>4.004086315859526e-10</v>
+        <v>3.155639901031139e-10</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>3.714144712572881e-10</v>
+        <v>2.886249542035832e-10</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>3.478117641288119e-10</v>
+        <v>2.68032404431686e-10</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>3.33432488720378e-10</v>
+        <v>2.5802891696459e-10</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>3.295145813313633e-10</v>
+        <v>2.597780696144688e-10</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>3.348351198728259e-10</v>
+        <v>2.71522524375586e-10</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>3.480740613986702e-10</v>
+        <v>2.913896656426244e-10</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>3.679113629628224e-10</v>
+        <v>3.175068778102985e-10</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>3.9302698161919e-10</v>
+        <v>3.480015452732948e-10</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>4.22100874421686e-10</v>
+        <v>3.810010524263076e-10</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>4.538129984242226e-10</v>
+        <v>4.146327836640312e-10</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>4.868433106807129e-10</v>
+        <v>4.470241233811602e-10</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>5.19871993872331e-10</v>
+        <v>4.763028144207974e-10</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>5.520740312661756e-10</v>
+        <v>5.013826769865789e-10</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>5.841683734843263e-10</v>
+        <v>5.23630393743666e-10</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>6.171742810348013e-10</v>
+        <v>5.448897421893528e-10</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>6.521110144256191e-10</v>
+        <v>5.670044998209342e-10</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>6.899978341647984e-10</v>
+        <v>5.918184441357045e-10</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>7.318540007603574e-10</v>
+        <v>6.211753526309587e-10</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>7.786987747203148e-10</v>
+        <v>6.569190028039905e-10</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>8.315514165526885e-10</v>
+        <v>7.008931721520951e-10</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>8.914311867654976e-10</v>
+        <v>7.549416381725669e-10</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>9.595507256137363e-10</v>
+        <v>8.209718104551662e-10</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>1.038408261910292e-09</v>
+        <v>9.013141247403654e-10</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>1.131026470341852e-09</v>
+        <v>9.984715870034042e-10</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>1.240429572633077e-09</v>
+        <v>1.114947712276262e-09</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>1.369641790508561e-09</v>
+        <v>1.253246015590844e-09</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>1.521687345693089e-09</v>
+        <v>1.415870011979265e-09</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>1.699590459911266e-09</v>
+        <v>1.60532321647344e-09</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.906375354887752e-09</v>
+        <v>1.824109144105349e-09</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>2.145066252347209e-09</v>
+        <v>2.074731309906972e-09</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>2.418687374014302e-09</v>
+        <v>2.359693228910288e-09</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>2.730262941613688e-09</v>
+        <v>2.681498416147275e-09</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>3.08281717687003e-09</v>
+        <v>3.042650386649913e-09</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>3.479374301507989e-09</v>
+        <v>3.445652655450181e-09</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>3.922955930195245e-09</v>
+        <v>3.893006287680228e-09</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>4.412976473101005e-09</v>
+        <v>4.383822591461879e-09</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>4.938084375758605e-09</v>
+        <v>4.907095898152011e-09</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>5.48492839979548e-09</v>
+        <v>5.449941399030663e-09</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>6.040157306839074e-09</v>
+        <v>5.999474285377874e-09</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>6.590419858516826e-09</v>
+        <v>6.542809748473681e-09</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>7.12236481645618e-09</v>
+        <v>7.067062979598125e-09</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>7.622640942284571e-09</v>
+        <v>7.559349170031244e-09</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>8.077896997629239e-09</v>
+        <v>8.006783511052874e-09</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>8.474781744118065e-09</v>
+        <v>8.396481193943487e-09</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>8.800094848683612e-09</v>
+        <v>8.715703215070408e-09</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>9.047205932076118e-09</v>
+        <v>8.958058476787913e-09</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>9.218450096564441e-09</v>
+        <v>9.1258183523576e-09</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>9.316807017135344e-09</v>
+        <v>9.221877002830538e-09</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>9.345256368775602e-09</v>
+        <v>9.249128589257791e-09</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>9.306777826471979e-09</v>
+        <v>9.210467272690428e-09</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>9.20435106521124e-09</v>
+        <v>9.108787214179516e-09</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>9.040955759980155e-09</v>
+        <v>8.946982574776123e-09</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>8.819571585765484e-09</v>
+        <v>8.727947515531314e-09</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>8.543180462728192e-09</v>
+        <v>8.454578413778738e-09</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>8.216191064553463e-09</v>
+        <v>8.131180040464656e-09</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>7.846882513251484e-09</v>
+        <v>7.765877808717887e-09</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>7.444183933797464e-09</v>
+        <v>7.367438770190364e-09</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>7.017024451166624e-09</v>
+        <v>6.944629976534021e-09</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>6.574333190334185e-09</v>
+        <v>6.506218479400799e-09</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>6.125039276275362e-09</v>
+        <v>6.060971330442626e-09</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>5.678071833965374e-09</v>
+        <v>5.617655581311439e-09</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>5.242359988379441e-09</v>
+        <v>5.185038283659176e-09</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>4.826832864492973e-09</v>
+        <v>4.77188648913796e-09</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>4.439250653507467e-09</v>
+        <v>4.385831265528985e-09</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>4.080678706276762e-09</v>
+        <v>4.027997554412784e-09</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>3.749803095208572e-09</v>
+        <v>3.697198086020071e-09</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>3.445307037703465e-09</v>
+        <v>3.39224281605135e-09</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>3.165873751162006e-09</v>
+        <v>3.111941700207123e-09</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>2.910186452984766e-09</v>
+        <v>2.855104694187894e-09</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>2.676928360572312e-09</v>
+        <v>2.620541753694168e-09</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>2.464782691325209e-09</v>
+        <v>2.407062834426446e-09</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>2.272432662644024e-09</v>
+        <v>2.213477892085233e-09</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>2.098567404389056e-09</v>
+        <v>2.038600672792948e-09</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>1.942055360238286e-09</v>
+        <v>1.881359879061693e-09</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>1.801972279488912e-09</v>
+        <v>1.740817115072007e-09</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>1.677405459211035e-09</v>
+        <v>1.616041388172238e-09</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>1.567442196474759e-09</v>
+        <v>1.50610170571073e-09</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>1.471169788350186e-09</v>
+        <v>1.41006707503583e-09</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>1.38767553190742e-09</v>
+        <v>1.327006503495884e-09</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>1.316046724216594e-09</v>
+        <v>1.25598899843927e-09</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>1.255370662347743e-09</v>
+        <v>1.196083567214266e-09</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>1.204734643371007e-09</v>
+        <v>1.146359217169254e-09</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>1.163225964356488e-09</v>
+        <v>1.105884955652581e-09</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>1.12993192237429e-09</v>
+        <v>1.073729790012593e-09</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>1.103939814494514e-09</v>
+        <v>1.048962727597636e-09</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>1.084336937787264e-09</v>
+        <v>1.030652775756057e-09</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>1.070210589322643e-09</v>
+        <v>1.0178689418362e-09</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>1.060648066170753e-09</v>
+        <v>1.009680233186413e-09</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>1.054736665401697e-09</v>
+        <v>1.00515565715504e-09</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>1.051563684085578e-09</v>
+        <v>1.00336422109043e-09</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>1.050216419292499e-09</v>
+        <v>1.003374932340927e-09</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>1.049782168092561e-09</v>
+        <v>1.004256798254878e-09</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>1.049348227555869e-09</v>
+        <v>1.005078826180629e-09</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>1.048001894752524e-09</v>
+        <v>1.004910023466525e-09</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>1.04483046675263e-09</v>
+        <v>1.002819397460913e-09</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>1.038921240626289e-09</v>
+        <v>9.978759555121385e-10</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>1.029361513443605e-09</v>
+        <v>9.891487049685489e-10</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>1.015238582274679e-09</v>
+        <v>9.757066531784892e-10</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>9.956397441896135e-10</v>
+        <v>9.566188074903053e-10</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>9.696522962585272e-10</v>
+        <v>9.30954175252358e-10</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>9.363770685725958e-10</v>
+        <v>8.977956685728716e-10</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>8.958058828580301e-10</v>
+        <v>8.571416658606317e-10</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>8.493590528986858e-10</v>
+        <v>8.104582768565436e-10</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>7.985854923207194e-10</v>
+        <v>7.593437436552348e-10</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>7.450341147502878e-10</v>
+        <v>7.053963083513336e-10</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>6.902538338135477e-10</v>
+        <v>6.502142130394672e-10</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>6.357935631366556e-10</v>
+        <v>5.953956998142637e-10</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>5.832022163457681e-10</v>
+        <v>5.425390107703506e-10</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>5.340287070670419e-10</v>
+        <v>4.932423880023561e-10</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>4.898219489266338e-10</v>
+        <v>4.491040736049076e-10</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>4.521308555507001e-10</v>
+        <v>4.117223096726328e-10</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>4.225043405653977e-10</v>
+        <v>3.826953383001598e-10</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>4.024913175968833e-10</v>
+        <v>3.636214015821161e-10</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>3.936407002713133e-10</v>
+        <v>3.560987416131295e-10</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>3.974857044070315e-10</v>
+        <v>3.617093188167732e-10</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>4.143978490742446e-10</v>
+        <v>3.808301887952764e-10</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>4.428087651937167e-10</v>
+        <v>4.118263669279092e-10</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>4.809658025088875e-10</v>
+        <v>4.528717332745099e-10</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>5.271163107631576e-10</v>
+        <v>5.021401678948735e-10</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>5.795076396999383e-10</v>
+        <v>5.578055508488075e-10</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>6.363871390626417e-10</v>
+        <v>6.180417621961196e-10</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>6.96002158594679e-10</v>
+        <v>6.810226819966167e-10</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>7.566000480394617e-10</v>
+        <v>7.449221903101064e-10</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>8.164281571404018e-10</v>
+        <v>8.07914167196396e-10</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>8.737338356409107e-10</v>
+        <v>8.681724927152933e-10</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>9.267644332843997e-10</v>
+        <v>9.238710469266052e-10</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>9.737672998142808e-10</v>
+        <v>9.731837098901394e-10</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>1.012989784973966e-09</v>
+        <v>1.014284361665703e-09</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>1.04272421731261e-09</v>
+        <v>1.04539394143564e-09</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>1.062416808291344e-09</v>
+        <v>1.065940639585311e-09</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>1.072738143848603e-09</v>
+        <v>1.07663364957703e-09</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>1.074417902583391e-09</v>
+        <v>1.078243990631011e-09</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>1.068185763094713e-09</v>
+        <v>1.071542681967464e-09</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>1.054771403981572e-09</v>
+        <v>1.057300742806601e-09</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>1.034904503842971e-09</v>
+        <v>1.036289192368635e-09</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>1.009314741277915e-09</v>
+        <v>1.009279049873778e-09</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>9.787317948854076e-10</v>
+        <v>9.770413345422416e-10</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>9.438853432644518e-10</v>
+        <v>9.403470655942379e-10</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>9.055050650140516e-10</v>
+        <v>8.999672622499787e-10</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>8.643206387332107e-10</v>
+        <v>8.566729437296762e-10</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>8.210617430209332e-10</v>
+        <v>8.112351292535424e-10</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>7.764580564762224e-10</v>
+        <v>7.644248380417892e-10</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>7.312392576980825e-10</v>
+        <v>7.17013089314629e-10</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>6.861350252855602e-10</v>
+        <v>6.697709022923186e-10</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>6.418750378375291e-10</v>
+        <v>6.234692961949342e-10</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>5.991889739531636e-10</v>
+        <v>5.788792902428662e-10</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>5.588065122313409e-10</v>
+        <v>5.367719036561939e-10</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>5.21407328235461e-10</v>
+        <v>4.978650892603296e-10</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>4.871493760388494e-10</v>
+        <v>4.623231159246356e-10</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>4.55880296637448e-10</v>
+        <v>4.299809285868959e-10</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>4.274436213012473e-10</v>
+        <v>4.006691106828936e-10</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>4.016828813002375e-10</v>
+        <v>3.742182456484112e-10</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>3.784416079044086e-10</v>
+        <v>3.504589169192317e-10</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>3.575633323837516e-10</v>
+        <v>3.292217079311381e-10</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>3.388915860082564e-10</v>
+        <v>3.103372021199133e-10</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>3.222699000479134e-10</v>
+        <v>2.936359829213399e-10</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>3.075418057727132e-10</v>
+        <v>2.78948633771201e-10</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>2.94550834452646e-10</v>
+        <v>2.661057381052794e-10</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>2.831405173577021e-10</v>
+        <v>2.549378793593581e-10</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>2.731543857578718e-10</v>
+        <v>2.452756409692198e-10</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>2.644359709231457e-10</v>
+        <v>2.369496063706476e-10</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>2.56828804123514e-10</v>
+        <v>2.297903589994241e-10</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>2.501764166289671e-10</v>
+        <v>2.236284822913323e-10</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>2.443223397094952e-10</v>
+        <v>2.18294559682155e-10</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>2.391101046350889e-10</v>
+        <v>2.136191746076753e-10</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>2.343834303879595e-10</v>
+        <v>2.094331136125958e-10</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>2.300274104750363e-10</v>
+        <v>2.056119314243881e-10</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>2.260202384530843e-10</v>
+        <v>2.021319191554199e-10</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>2.223528279664191e-10</v>
+        <v>1.989831313439396e-10</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>2.190160926593561e-10</v>
+        <v>1.961556225281953e-10</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>2.160009461762109e-10</v>
+        <v>1.936394472464355e-10</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>2.13298302161299e-10</v>
+        <v>1.914246600369085e-10</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>2.108990742589361e-10</v>
+        <v>1.895013154378624e-10</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>2.087941761134373e-10</v>
+        <v>1.878594679875456e-10</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>2.069745213691187e-10</v>
+        <v>1.864891722242065e-10</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>2.054310236702954e-10</v>
+        <v>1.853804826860932e-10</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>2.04154596661283e-10</v>
+        <v>1.845234539114541e-10</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>2.031361539863971e-10</v>
+        <v>1.839081404385375e-10</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>2.023666092899532e-10</v>
+        <v>1.835245968055917e-10</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>2.018368762162669e-10</v>
+        <v>1.833628775508649e-10</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>2.015378684096537e-10</v>
+        <v>1.834130372126053e-10</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>2.014604995144288e-10</v>
+        <v>1.836651303290616e-10</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>2.01595683174908e-10</v>
+        <v>1.841092114384813e-10</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>2.019343330354068e-10</v>
+        <v>1.847353350791135e-10</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>2.024673627402408e-10</v>
+        <v>1.855335557892062e-10</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>2.031856859337254e-10</v>
+        <v>1.864939281070077e-10</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>2.040802162601764e-10</v>
+        <v>1.876065065707665e-10</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>2.05141867363909e-10</v>
+        <v>1.888613457187306e-10</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>2.063615528892389e-10</v>
+        <v>1.902485000891484e-10</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>2.077301864804816e-10</v>
+        <v>1.917580242202682e-10</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>2.092386817819526e-10</v>
+        <v>1.933799726503383e-10</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>2.108779524379674e-10</v>
+        <v>1.95104399917607e-10</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>2.126389120928416e-10</v>
+        <v>1.969213605603225e-10</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>2.145124743908907e-10</v>
+        <v>1.988209091167332e-10</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>2.164895529764302e-10</v>
+        <v>2.007931001250874e-10</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>2.185610614937757e-10</v>
+        <v>2.028279881236334e-10</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>2.207179135872426e-10</v>
+        <v>2.049156276506193e-10</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>2.229510229011465e-10</v>
+        <v>2.070460732442937e-10</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>2.25251303079803e-10</v>
+        <v>2.092093794429046e-10</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>2.276096677675275e-10</v>
+        <v>2.113956007847005e-10</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>2.300170306086356e-10</v>
+        <v>2.135947918079296e-10</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>2.324643052474427e-10</v>
+        <v>2.157970070508402e-10</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>2.349424053282645e-10</v>
+        <v>2.179923010516807e-10</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>2.374545666318293e-10</v>
+        <v>2.201837870600186e-10</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>2.40118819623963e-10</v>
+        <v>2.224962350417147e-10</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>2.431156607939858e-10</v>
+        <v>2.251206149900236e-10</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>2.466262120109715e-10</v>
+        <v>2.282485596610033e-10</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>2.508315951439941e-10</v>
+        <v>2.320717018107117e-10</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>2.559129320621276e-10</v>
+        <v>2.367816741952066e-10</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>2.620513446344457e-10</v>
+        <v>2.425701095705459e-10</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>2.694279547300224e-10</v>
+        <v>2.496286406927876e-10</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>2.782238842179315e-10</v>
+        <v>2.581489003179894e-10</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>2.88620254967247e-10</v>
+        <v>2.683225212022094e-10</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>3.007981888470428e-10</v>
+        <v>2.803411361015053e-10</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>3.149388077263928e-10</v>
+        <v>2.943963777719351e-10</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>3.312232334743709e-10</v>
+        <v>3.106798789695567e-10</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>3.498325879600509e-10</v>
+        <v>3.293832724504279e-10</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>3.709479930524851e-10</v>
+        <v>3.506981909705847e-10</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>3.947505706208125e-10</v>
+        <v>3.74816267286151e-10</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>4.214214425340147e-10</v>
+        <v>4.019291341530908e-10</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>4.511417306612386e-10</v>
+        <v>4.322284243275364e-10</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>4.840925568715338e-10</v>
+        <v>4.659057705655208e-10</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>5.204550430339743e-10</v>
+        <v>5.031528056231022e-10</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>5.60410311017634e-10</v>
+        <v>5.441611622563382e-10</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>6.041394826915865e-10</v>
+        <v>5.891224732212867e-10</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>6.518236799249059e-10</v>
+        <v>6.382283712740059e-10</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>7.036426003108063e-10</v>
+        <v>6.916689932382438e-10</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>7.594039410885071e-10</v>
+        <v>7.492437599505644e-10</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>8.18048050140964e-10</v>
+        <v>8.098411058564475e-10</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>8.783918986652539e-10</v>
+        <v>8.72219881536463e-10</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>9.392524578584557e-10</v>
+        <v>9.35138937571182e-10</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>9.994466989176462e-10</v>
+        <v>9.973571245411746e-10</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>1.057791593039903e-09</v>
+        <v>1.057633293027011e-09</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>1.113104111422304e-09</v>
+        <v>1.114726293609262e-09</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>1.164201225261927e-09</v>
+        <v>1.167394976868497e-09</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>1.209899905755849e-09</v>
+        <v>1.214398193385287e-09</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>1.249017124101149e-09</v>
+        <v>1.254494793740202e-09</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>1.280369851494903e-09</v>
+        <v>1.286443628513813e-09</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>1.30277505913419e-09</v>
+        <v>1.30900354828669e-09</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>1.315049718216087e-09</v>
+        <v>1.320933403639404e-09</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>1.316032464853923e-09</v>
+        <v>1.32101503886204e-09</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>1.305672078122674e-09</v>
+        <v>1.309208530576001e-09</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>1.285537007388125e-09</v>
+        <v>1.287192966348686e-09</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.257323852490355e-09</v>
+        <v>1.256783444186964e-09</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.222729213269443e-09</v>
+        <v>1.219795062097707e-09</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.183449689565469e-09</v>
+        <v>1.178042918087783e-09</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.141181881218512e-09</v>
+        <v>1.133342110164061e-09</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.097622388068652e-09</v>
+        <v>1.087507736333414e-09</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>1.054467809955969e-09</v>
+        <v>1.042354894602709e-09</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>1.01341474672054e-09</v>
+        <v>9.996986829788166e-10</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>9.759743013170457e-10</v>
+        <v>9.611532629669415e-10</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>9.423945925007205e-10</v>
+        <v>9.269646888604307e-10</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>9.123973110844906e-10</v>
+        <v>8.968087703963529e-10</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>8.857024051090311e-10</v>
+        <v>8.703594294819166e-10</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>8.620298226150168e-10</v>
+        <v>8.472905880243302e-10</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>8.41099511643123e-10</v>
+        <v>8.272761679308025e-10</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>8.226314202340418e-10</v>
+        <v>8.099900911085572e-10</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>8.063454964284129e-10</v>
+        <v>7.951062794647702e-10</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>7.9196168826693e-10</v>
+        <v>7.822986549066674e-10</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>7.791999437902686e-10</v>
+        <v>7.712411393414583e-10</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>7.67780211039104e-10</v>
+        <v>7.616076546763505e-10</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>7.574224380541111e-10</v>
+        <v>7.53072122818553e-10</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>7.47846572875965e-10</v>
+        <v>7.453084656752743e-10</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>7.38772563545341e-10</v>
+        <v>7.379906051537231e-10</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>7.299203581029143e-10</v>
+        <v>7.307924631611078e-10</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>7.2100990458936e-10</v>
+        <v>7.233879616046368e-10</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>7.117611510453532e-10</v>
+        <v>7.154510223915192e-10</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>7.018940455115691e-10</v>
+        <v>7.066555674289631e-10</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>6.911344905134151e-10</v>
+        <v>6.966822347890844e-10</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>6.794156328185209e-10</v>
+        <v>6.85445416860187e-10</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>6.669265990968996e-10</v>
+        <v>6.731482301292412e-10</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>6.538723541313006e-10</v>
+        <v>6.600116551607558e-10</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>6.404578627044736e-10</v>
+        <v>6.462566725192395e-10</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>6.268880895991679e-10</v>
+        <v>6.321042627692011e-10</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>6.133679995981333e-10</v>
+        <v>6.177754064751494e-10</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>6.001025574841192e-10</v>
+        <v>6.034910842015931e-10</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>5.872967280398751e-10</v>
+        <v>5.894722765130409e-10</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>5.751554760481506e-10</v>
+        <v>5.759399639740016e-10</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>5.638837662916949e-10</v>
+        <v>5.631151271489836e-10</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>5.536865635532582e-10</v>
+        <v>5.512187466024963e-10</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>5.447271326700268e-10</v>
+        <v>5.404342765612332e-10</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>5.369608147792862e-10</v>
+        <v>5.307580579380242e-10</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>5.302782737274624e-10</v>
+        <v>5.221282276880445e-10</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>5.245701527863867e-10</v>
+        <v>5.14482904251117e-10</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>5.197270952278899e-10</v>
+        <v>5.077602060670637e-10</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>5.156397443238034e-10</v>
+        <v>5.018982515757077e-10</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>5.121987433459583e-10</v>
+        <v>4.968351592168711e-10</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>5.09297299605723e-10</v>
+        <v>4.925100359737041e-10</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>5.068766842852374e-10</v>
+        <v>4.888805194401558e-10</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>5.049208550767165e-10</v>
+        <v>4.859207046259411e-10</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>5.034152534915516e-10</v>
+        <v>4.836052586144594e-10</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>5.023453210411346e-10</v>
+        <v>4.819088484891099e-10</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>5.01696499236857e-10</v>
+        <v>4.808061413332925e-10</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>5.014542295901102e-10</v>
+        <v>4.802718042304066e-10</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>5.016039536122854e-10</v>
+        <v>4.802805042638509e-10</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>5.021311128147748e-10</v>
+        <v>4.808069085170255e-10</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>5.030211487089698e-10</v>
+        <v>4.8182568407333e-10</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>5.042595028062623e-10</v>
+        <v>4.83311498016164e-10</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>5.058316166180433e-10</v>
+        <v>4.852390174289266e-10</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>5.077229316557048e-10</v>
+        <v>4.875829093950174e-10</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>5.099188894306381e-10</v>
+        <v>4.903178409978361e-10</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>5.124049314542353e-10</v>
+        <v>4.934184793207822e-10</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>5.151664992378872e-10</v>
+        <v>4.968594914472548e-10</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>5.181890342929859e-10</v>
+        <v>5.006155444606537e-10</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>5.214579781309229e-10</v>
+        <v>5.046613054443783e-10</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>5.249587722630899e-10</v>
+        <v>5.089714414818279e-10</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>5.286768582008781e-10</v>
+        <v>5.135206196564026e-10</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>5.325976774556793e-10</v>
+        <v>5.182835070515011e-10</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>5.367066715388852e-10</v>
+        <v>5.232347707505233e-10</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>5.409892819618871e-10</v>
+        <v>5.283490778368687e-10</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>5.454309502360768e-10</v>
+        <v>5.336010953939364e-10</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>5.500171178728457e-10</v>
+        <v>5.389654905051262e-10</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>5.547332263835857e-10</v>
+        <v>5.444169302538379e-10</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.595647172796879e-10</v>
+        <v>5.499300817234702e-10</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.644970320725445e-10</v>
+        <v>5.554796119974235e-10</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.695175237140929e-10</v>
+        <v>5.610426811881754e-10</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.746411955950556e-10</v>
+        <v>5.666325129666883e-10</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.799038606370964e-10</v>
+        <v>5.722894721911565e-10</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.853418402780417e-10</v>
+        <v>5.780545869606927e-10</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.909914559557189e-10</v>
+        <v>5.839688853744095e-10</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>5.968890291079539e-10</v>
+        <v>5.900733955314186e-10</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>6.030708811725737e-10</v>
+        <v>5.964091455308322e-10</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>6.095733335874049e-10</v>
+        <v>6.030171634717627e-10</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>6.164327077902742e-10</v>
+        <v>6.099384774533223e-10</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>6.236853252190082e-10</v>
+        <v>6.172141155746229e-10</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>6.313675073114335e-10</v>
+        <v>6.248851059347771e-10</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>6.395155755053769e-10</v>
+        <v>6.329924766328966e-10</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>6.481658512386651e-10</v>
+        <v>6.415772557680941e-10</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>6.573546559491244e-10</v>
+        <v>6.506804714394813e-10</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>6.671183110745817e-10</v>
+        <v>6.60343151746171e-10</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>6.774931380528537e-10</v>
+        <v>6.70606324787265e-10</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>6.885154583217865e-10</v>
+        <v>6.815110186618948e-10</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>7.002215933191972e-10</v>
+        <v>6.930982614691637e-10</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>7.126478644829127e-10</v>
+        <v>7.054090813081833e-10</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>7.258305932507591e-10</v>
+        <v>7.184845062780662e-10</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>7.398061010605636e-10</v>
+        <v>7.32365564477924e-10</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>7.546107093501529e-10</v>
+        <v>7.470932840068699e-10</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>7.702807395573533e-10</v>
+        <v>7.627086929640153e-10</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>7.868525131199915e-10</v>
+        <v>7.792528194484726e-10</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>8.043623514758943e-10</v>
+        <v>7.96766691559354e-10</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>8.228465760628885e-10</v>
+        <v>8.15291337395772e-10</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>8.423415083188002e-10</v>
+        <v>8.348677850568384e-10</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>8.628834696814566e-10</v>
+        <v>8.555370626416653e-10</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>8.845087815886842e-10</v>
+        <v>8.773401982493653e-10</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>9.072537654783096e-10</v>
+        <v>9.003182199790503e-10</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>9.311547427881596e-10</v>
+        <v>9.245121559298328e-10</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>9.562480349560607e-10</v>
+        <v>9.499630342008247e-10</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>9.825699634198398e-10</v>
+        <v>9.767118828911387e-10</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>1.010156849617323e-09</v>
+        <v>1.004799730099886e-09</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>1.039045014986338e-09</v>
+        <v>1.03426760392618e-09</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>1.06927078096471e-09</v>
+        <v>1.065156532469132e-09</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>1.100870468990267e-09</v>
+        <v>1.097507543827854e-09</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>1.133880101236744e-09</v>
+        <v>1.131361250766915e-09</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>1.168317073368129e-09</v>
+        <v>1.166732415194823e-09</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>1.204169517577551e-09</v>
+        <v>1.203595185626426e-09</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>1.241423002344813e-09</v>
+        <v>1.241920152519529e-09</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>1.28006309614972e-09</v>
+        <v>1.281677906331937e-09</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>1.320075367472074e-09</v>
+        <v>1.322839037521456e-09</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>1.361445384791679e-09</v>
+        <v>1.365374136545892e-09</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>1.404158716588337e-09</v>
+        <v>1.40925379386305e-09</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>1.448200931341852e-09</v>
+        <v>1.454448599930734e-09</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.493557597532028e-09</v>
+        <v>1.500929145206752e-09</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.540214283638668e-09</v>
+        <v>1.548666020148908e-09</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.588156558141574e-09</v>
+        <v>1.597629815215008e-09</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.63736998952055e-09</v>
+        <v>1.647791120862857e-09</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.6878401462554e-09</v>
+        <v>1.69912052755026e-09</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.739552596825928e-09</v>
+        <v>1.751588625735024e-09</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.792492909711883e-09</v>
+        <v>1.805166005874901e-09</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.846646653393172e-09</v>
+        <v>1.8598232584278e-09</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.901999396349547e-09</v>
+        <v>1.915530973851476e-09</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>1.958536707060813e-09</v>
+        <v>1.972259742603734e-09</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>2.016246644623626e-09</v>
+        <v>2.02998323515292e-09</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>2.075188918200294e-09</v>
+        <v>2.088763727710631e-09</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>2.135503913014255e-09</v>
+        <v>2.148763264189909e-09</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>2.197336318074869e-09</v>
+        <v>2.210149210762018e-09</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>2.260830822391498e-09</v>
+        <v>2.273088933598213e-09</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>2.326132114973503e-09</v>
+        <v>2.337749798869758e-09</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>2.393384884830244e-09</v>
+        <v>2.404299172747911e-09</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>2.462733820971083e-09</v>
+        <v>2.472904421403934e-09</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>2.534323612405381e-09</v>
+        <v>2.543732911009085e-09</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>2.608298948142498e-09</v>
+        <v>2.616952007734625e-09</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>2.684804517191796e-09</v>
+        <v>2.692729077751815e-09</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>2.763985008562635e-09</v>
+        <v>2.771231487231912e-09</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>2.845985111264377e-09</v>
+        <v>2.852626602346179e-09</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>2.930949514306381e-09</v>
+        <v>2.937081789265875e-09</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>3.019022906698011e-09</v>
+        <v>3.02476441416226e-09</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>3.110340635853402e-09</v>
+        <v>3.115832106352174e-09</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>3.204698630523617e-09</v>
+        <v>3.210088715093454e-09</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>3.301465162862462e-09</v>
+        <v>3.306892338149774e-09</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>3.399981219895761e-09</v>
+        <v>3.405572633675451e-09</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>3.499587788649343e-09</v>
+        <v>3.505459259824802e-09</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>3.599625856149034e-09</v>
+        <v>3.605881874752146e-09</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>3.699436409420662e-09</v>
+        <v>3.706170136611802e-09</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>3.798360435490055e-09</v>
+        <v>3.805653703558087e-09</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>3.895738921383038e-09</v>
+        <v>3.903662233745319e-09</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>3.99091285412544e-09</v>
+        <v>3.999525385327816e-09</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>4.083232105499064e-09</v>
+        <v>4.092581995373968e-09</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>4.172364743268549e-09</v>
+        <v>4.18249963182457e-09</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>4.258377102271391e-09</v>
+        <v>4.269357315590841e-09</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>4.341360669657267e-09</v>
+        <v>4.353260052643435e-09</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>4.421406932575856e-09</v>
+        <v>4.434312848953009e-09</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>4.498607378176835e-09</v>
+        <v>4.51262071049022e-09</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>4.573053493609882e-09</v>
+        <v>4.588288643225723e-09</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>4.644836766024676e-09</v>
+        <v>4.661421653130173e-09</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>4.714048682570832e-09</v>
+        <v>4.732124746174162e-09</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>4.780780730398158e-09</v>
+        <v>4.800502928328482e-09</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>4.845124396656265e-09</v>
+        <v>4.866661205563715e-09</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>4.907171168494833e-09</v>
+        <v>4.930704583850523e-09</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>4.967012533063539e-09</v>
+        <v>4.992738069159561e-09</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>5.024656315815364e-09</v>
+        <v>5.052766059212426e-09</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>5.079649378185861e-09</v>
+        <v>5.110238614626605e-09</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>5.131380673360875e-09</v>
+        <v>5.164415901801059e-09</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>5.179239014804267e-09</v>
+        <v>5.214557919110613e-09</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>5.222613215979896e-09</v>
+        <v>5.259924664930093e-09</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>5.260892090351623e-09</v>
+        <v>5.299776137634327e-09</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>5.293464451383308e-09</v>
+        <v>5.333372335598137e-09</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>5.319719112538812e-09</v>
+        <v>5.359973257196352e-09</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>5.339044887281994e-09</v>
+        <v>5.378838900803792e-09</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>5.350830589076713e-09</v>
+        <v>5.389229264795286e-09</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>5.354465021916076e-09</v>
+        <v>5.390404358797723e-09</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>5.349272067774084e-09</v>
+        <v>5.381701325345435e-09</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>5.334355669303122e-09</v>
+        <v>5.362718613684552e-09</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>5.308773239340861e-09</v>
+        <v>5.333109954457893e-09</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>5.271582190724969e-09</v>
+        <v>5.292529078308268e-09</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>5.221839936293117e-09</v>
+        <v>5.240629715878496e-09</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>5.158673348682947e-09</v>
+        <v>5.177116079412868e-09</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>5.083260674295788e-09</v>
+        <v>5.103183267004298e-09</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>4.999120646564133e-09</v>
+        <v>5.021727382703459e-09</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>4.90989959666632e-09</v>
+        <v>4.935737265330755e-09</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>4.819243855780695e-09</v>
+        <v>4.848201753706589e-09</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>4.730325958772473e-09</v>
+        <v>4.76171627239049e-09</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>4.64351912930233e-09</v>
+        <v>4.676551852699614e-09</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>4.558172191921827e-09</v>
+        <v>4.592128921572848e-09</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>4.473632440641692e-09</v>
+        <v>4.507866635072596e-09</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>4.389247169472655e-09</v>
+        <v>4.423184149261266e-09</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>4.304363672425446e-09</v>
+        <v>4.337500620201268e-09</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>4.218329243510795e-09</v>
+        <v>4.250235203955008e-09</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>4.130491176739431e-09</v>
+        <v>4.160807056584895e-09</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>4.040196766122085e-09</v>
+        <v>4.068635334153336e-09</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>3.946793305669574e-09</v>
+        <v>3.973139192722829e-09</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>3.849628089392356e-09</v>
+        <v>3.873737788355504e-09</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>3.748175519562668e-09</v>
+        <v>3.769975933792918e-09</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>3.64300703985076e-09</v>
+        <v>3.66248295490987e-09</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>3.535255047585939e-09</v>
+        <v>3.552442725122875e-09</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>3.426056460771032e-09</v>
+        <v>3.441043586895638e-09</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>3.316548197409279e-09</v>
+        <v>3.329473882692285e-09</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>3.207867175503816e-09</v>
+        <v>3.218921954976836e-09</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>3.101150313057778e-09</v>
+        <v>3.110576146213311e-09</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>2.997534528074301e-09</v>
+        <v>3.005624798865734e-09</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>2.898156738556522e-09</v>
+        <v>2.905256255398123e-09</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>2.804135118804598e-09</v>
+        <v>2.81063879805699e-09</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>2.715896845838062e-09</v>
+        <v>2.722201177750605e-09</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>2.632992667865112e-09</v>
+        <v>2.639434158234618e-09</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>2.554916844869741e-09</v>
+        <v>2.561768047437698e-09</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>2.481163636835943e-09</v>
+        <v>2.488633153288516e-09</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>2.411227303747711e-09</v>
+        <v>2.419459783715741e-09</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>2.344602105589038e-09</v>
+        <v>2.353678246648043e-09</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>2.280782302343918e-09</v>
+        <v>2.290718850014091e-09</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>2.219262153996342e-09</v>
+        <v>2.230011901742554e-09</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>2.159535920530305e-09</v>
+        <v>2.170987709762103e-09</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>2.101097861929799e-09</v>
+        <v>2.113076582001406e-09</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>2.043442238178818e-09</v>
+        <v>2.055708826389135e-09</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>1.986063309261354e-09</v>
+        <v>1.998314750853956e-09</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>1.928455335161401e-09</v>
+        <v>1.940324663324542e-09</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>1.870113172355147e-09</v>
+        <v>1.881169533628395e-09</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.811090705031101e-09</v>
+        <v>1.820900657885899e-09</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>1.75303808298036e-09</v>
+        <v>1.761340631746718e-09</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>1.697888522557688e-09</v>
+        <v>1.704626156276422e-09</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>1.64757524011785e-09</v>
+        <v>1.652893932540575e-09</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>1.604031452015608e-09</v>
+        <v>1.608280661604744e-09</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.569190374605728e-09</v>
+        <v>1.572923044534494e-09</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.544985224242975e-09</v>
+        <v>1.548957782395392e-09</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.531802412175902e-09</v>
+        <v>1.536821859650921e-09</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>1.522136556655805e-09</v>
+        <v>1.528280313973213e-09</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>1.507836765781195e-09</v>
+        <v>1.514379802156211e-09</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>1.489236950340332e-09</v>
+        <v>1.495449342753934e-09</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>1.469083454623243e-09</v>
+        <v>1.474457154502068e-09</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>1.45012279121562e-09</v>
+        <v>1.454371640251619e-09</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>1.435101472703285e-09</v>
+        <v>1.438161202853724e-09</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>1.426766011671935e-09</v>
+        <v>1.428794245159391e-09</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>1.42786292070735e-09</v>
+        <v>1.429239170019717e-09</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>1.441031880400402e-09</v>
+        <v>1.442347918371242e-09</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>1.466238800970701e-09</v>
+        <v>1.468057645024981e-09</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>1.500649627212107e-09</v>
+        <v>1.503253148290938e-09</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>1.54129821608422e-09</v>
+        <v>1.544675232144081e-09</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.585218424546639e-09</v>
+        <v>1.589064700559375e-09</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.629579998010555e-09</v>
+        <v>1.633341752275443e-09</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.672523473401034e-09</v>
+        <v>1.675708188051918e-09</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.712611724442231e-09</v>
+        <v>1.714923361621981e-09</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.748409358068526e-09</v>
+        <v>1.74974891483701e-09</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>1.778480981214303e-09</v>
+        <v>1.778946489548387e-09</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>1.801398224807773e-09</v>
+        <v>1.801283512841208e-09</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>1.816285157529889e-09</v>
+        <v>1.815982420957848e-09</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>1.823207387828803e-09</v>
+        <v>1.823041138806863e-09</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.822322372741334e-09</v>
+        <v>1.822533241356419e-09</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>1.813787569304301e-09</v>
+        <v>1.814532303574684e-09</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>1.797760434554524e-09</v>
+        <v>1.799111900429826e-09</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>1.774421176104639e-09</v>
+        <v>1.776371391464991e-09</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>1.744292468704446e-09</v>
+        <v>1.746798274512579e-09</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.708161671975948e-09</v>
+        <v>1.711180030446681e-09</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.666823015256279e-09</v>
+        <v>1.670311925996407e-09</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.621070727882566e-09</v>
+        <v>1.624989227890863e-09</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.571699039191942e-09</v>
+        <v>1.576007202859155e-09</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.519502178521539e-09</v>
+        <v>1.524161117630392e-09</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>1.465274375208486e-09</v>
+        <v>1.47024623893368e-09</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>1.409809858589914e-09</v>
+        <v>1.415057833498127e-09</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>1.353901195527422e-09</v>
+        <v>1.359389503686776e-09</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>1.298149513808785e-09</v>
+        <v>1.30384319508843e-09</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>1.242789254835896e-09</v>
+        <v>1.248653749918108e-09</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>1.188013435518906e-09</v>
+        <v>1.194014538792038e-09</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>1.134015072767965e-09</v>
+        <v>1.140118932326449e-09</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>1.080987183493223e-09</v>
+        <v>1.087160301137571e-09</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>1.029122784604831e-09</v>
+        <v>1.03533201584163e-09</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>9.78614893012985e-10</v>
+        <v>9.848274470549055e-10</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>9.296565256276915e-10</v>
+        <v>9.3583996539348e-10</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>8.824406993592901e-10</v>
+        <v>8.88562941473772e-10</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>8.371604311177477e-10</v>
+        <v>8.431897459118269e-10</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>7.940087378133896e-10</v>
+        <v>7.99913749324049e-10</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>7.531786363562372e-10</v>
+        <v>7.589283223265386e-10</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>7.148631436564832e-10</v>
+        <v>7.204268355355666e-10</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>6.792551020841005e-10</v>
+        <v>6.846024877279642e-10</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>6.46464341852188e-10</v>
+        <v>6.515667500275452e-10</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>6.163851130687117e-10</v>
+        <v>6.212188492713426e-10</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>5.888771227239811e-10</v>
+        <v>5.934240036880092e-10</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>5.63800077808306e-10</v>
+        <v>5.680474315061982e-10</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>5.410136853119963e-10</v>
+        <v>5.449543509545627e-10</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>5.203776522253619e-10</v>
+        <v>5.240099802617557e-10</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>5.01751685538713e-10</v>
+        <v>5.050795376564302e-10</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>4.849954922423589e-10</v>
+        <v>4.880282413672393e-10</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>4.699687793266097e-10</v>
+        <v>4.72721309622836e-10</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>4.565312537817753e-10</v>
+        <v>4.590239606518732e-10</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>4.445426225981657e-10</v>
+        <v>4.468014126830043e-10</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>4.338625927660905e-10</v>
+        <v>4.35918883944882e-10</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>4.243508712758595e-10</v>
+        <v>4.262415926661596e-10</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>4.158766164760141e-10</v>
+        <v>4.176418837889665e-10</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>4.083822191972731e-10</v>
+        <v>4.10047322563974e-10</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>4.018442646136843e-10</v>
+        <v>4.034112581854374e-10</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>3.962395308604256e-10</v>
+        <v>3.976871853482534e-10</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>3.91544796072675e-10</v>
+        <v>3.928285987473188e-10</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>3.877368383856108e-10</v>
+        <v>3.887889930775307e-10</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>3.847924359344107e-10</v>
+        <v>3.855218630337858e-10</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>3.826883668542527e-10</v>
+        <v>3.829807033109809e-10</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>3.814014092803149e-10</v>
+        <v>3.811190086040129e-10</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>3.808017154462029e-10</v>
+        <v>3.798093805788387e-10</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>3.80198478717351e-10</v>
+        <v>3.784988426761625e-10</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>3.787170694048834e-10</v>
+        <v>3.764949587547969e-10</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>3.754827511940222e-10</v>
+        <v>3.731052117805245e-10</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>3.696209419935154e-10</v>
+        <v>3.676372269505262e-10</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>3.616442867497014e-10</v>
+        <v>3.606779883612227e-10</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>3.56366359851563e-10</v>
+        <v>3.567325134704605e-10</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>3.537984535992165e-10</v>
+        <v>3.552758243099449e-10</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>3.500414342942275e-10</v>
+        <v>3.517787884548602e-10</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>3.432332181123895e-10</v>
+        <v>3.441924596932683e-10</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>3.349663348802896e-10</v>
+        <v>3.346506502490785e-10</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>3.271528219977955e-10</v>
+        <v>3.256740239980847e-10</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>3.215956630417933e-10</v>
+        <v>3.196366412634774e-10</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>3.182984773599607e-10</v>
+        <v>3.164936358123719e-10</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>3.157886748966462e-10</v>
+        <v>3.142156392915996e-10</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>3.1264778915061e-10</v>
+        <v>3.108585900910028e-10</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>3.085431804608892e-10</v>
+        <v>3.06077503382523e-10</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>3.038194706371498e-10</v>
+        <v>3.005247845783503e-10</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>2.988313995369902e-10</v>
+        <v>2.948676843300739e-10</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>2.93820804667825e-10</v>
+        <v>2.89570091456691e-10</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>2.887210023649242e-10</v>
+        <v>2.845401806502665e-10</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>2.834130903343295e-10</v>
+        <v>2.79592069427633e-10</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>2.777781662820825e-10</v>
+        <v>2.745398753056232e-10</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>2.716973279142248e-10</v>
+        <v>2.691977158010695e-10</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>2.65051672936798e-10</v>
+        <v>2.633797084308049e-10</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>2.577222990558439e-10</v>
+        <v>2.568999707116619e-10</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>2.495903039774039e-10</v>
+        <v>2.495726201604731e-10</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>2.405367854075198e-10</v>
+        <v>2.412117742940711e-10</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>2.30566988179751e-10</v>
+        <v>2.317621138784704e-10</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>2.2064809318818e-10</v>
+        <v>2.221799701308696e-10</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>2.121964368236762e-10</v>
+        <v>2.13894042838089e-10</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>2.066308900937702e-10</v>
+        <v>2.083356973966443e-10</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>2.053703240059931e-10</v>
+        <v>2.069362992030512e-10</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>2.098333603341109e-10</v>
+        <v>2.111269670783922e-10</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>2.209354495360965e-10</v>
+        <v>2.218410153617853e-10</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>2.380335840493502e-10</v>
+        <v>2.384699229115816e-10</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>2.601839438396192e-10</v>
+        <v>2.601075645854275e-10</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>2.864427088726505e-10</v>
+        <v>2.858478152409695e-10</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>3.158660591141911e-10</v>
+        <v>3.147845497358542e-10</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>3.475101745299885e-10</v>
+        <v>3.460116429277279e-10</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>3.804312350857894e-10</v>
+        <v>3.786229696742373e-10</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>4.136854207473412e-10</v>
+        <v>4.117124048330289e-10</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>4.463262874878232e-10</v>
+        <v>4.443668668803086e-10</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>4.773779790215964e-10</v>
+        <v>4.755953004085509e-10</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>5.058461692308641e-10</v>
+        <v>5.043576852383382e-10</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>5.307362461150677e-10</v>
+        <v>5.296132432955799e-10</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>5.510535976734756e-10</v>
+        <v>5.503211965060107e-10</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>5.658094315021043e-10</v>
+        <v>5.654467359712955e-10</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>5.746689757453882e-10</v>
+        <v>5.746258834169258e-10</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>5.78541545678198e-10</v>
+        <v>5.787707240618451e-10</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>5.784758153617372e-10</v>
+        <v>5.789362838044559e-10</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>5.755204588572201e-10</v>
+        <v>5.761775885431724e-10</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>5.707190737747098e-10</v>
+        <v>5.715445731926324e-10</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>5.647395812689924e-10</v>
+        <v>5.657104207433924e-10</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>5.576225698413207e-10</v>
+        <v>5.587191856341968e-10</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>5.493490340415998e-10</v>
+        <v>5.505551577496945e-10</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>5.398999684197351e-10</v>
+        <v>5.412026269745348e-10</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>5.29256367525632e-10</v>
+        <v>5.306458831933672e-10</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>5.17399225909196e-10</v>
+        <v>5.188692162908407e-10</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>5.043242687035881e-10</v>
+        <v>5.058713535305234e-10</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>4.901491508209115e-10</v>
+        <v>4.917705250082549e-10</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>4.750517416872996e-10</v>
+        <v>4.767439767963891e-10</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>4.592103366615077e-10</v>
+        <v>4.609693724219421e-10</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>4.428032311022906e-10</v>
+        <v>4.446243754119297e-10</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>4.260087203684038e-10</v>
+        <v>4.278866492933681e-10</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>4.090050998186019e-10</v>
+        <v>4.10933857593273e-10</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>3.919706648116403e-10</v>
+        <v>3.939436638386604e-10</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>3.75083710706274e-10</v>
+        <v>3.770937315565463e-10</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>3.585225328612579e-10</v>
+        <v>3.605617242739465e-10</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>3.424654266353474e-10</v>
+        <v>3.445253055178772e-10</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>3.270906873872974e-10</v>
+        <v>3.29162138815354e-10</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>3.125684046727987e-10</v>
+        <v>3.14641729772508e-10</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>2.989545320103289e-10</v>
+        <v>3.01020113960371e-10</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>2.862213834069975e-10</v>
+        <v>2.882701754885927e-10</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>2.743393517535172e-10</v>
+        <v>2.763628885604492e-10</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>2.632788299406012e-10</v>
+        <v>2.652692273792167e-10</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>2.530102108589622e-10</v>
+        <v>2.549601661481712e-10</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>2.435038873993132e-10</v>
+        <v>2.454066790705891e-10</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>2.347302524523672e-10</v>
+        <v>2.365797403497463e-10</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>2.266596989088371e-10</v>
+        <v>2.284503241889193e-10</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>2.192626196594357e-10</v>
+        <v>2.209894047913837e-10</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>2.125094075948822e-10</v>
+        <v>2.141679563604223e-10</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>2.06370455605871e-10</v>
+        <v>2.079569530992923e-10</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>2.008161565831385e-10</v>
+        <v>2.023273692112938e-10</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>1.958169034173764e-10</v>
+        <v>1.972501788996813e-10</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>1.913430889993169e-10</v>
+        <v>1.926963563677505e-10</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>1.873651062196591e-10</v>
+        <v>1.886368758187636e-10</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>1.838533479691207e-10</v>
+        <v>1.850427114560015e-10</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>1.807782071384143e-10</v>
+        <v>1.818848374827401e-10</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>1.781100766182532e-10</v>
+        <v>1.791342281022557e-10</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>1.7581934929935e-10</v>
+        <v>1.767618575178244e-10</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>1.738764180724179e-10</v>
+        <v>1.747386999327224e-10</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>1.722516758281696e-10</v>
+        <v>1.730357295502259e-10</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>1.709155154573181e-10</v>
+        <v>1.716239205736108e-10</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>1.698383298505765e-10</v>
+        <v>1.704742472061535e-10</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>1.689905118986574e-10</v>
+        <v>1.695576836511299e-10</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>1.68342454492274e-10</v>
+        <v>1.688452041118164e-10</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>1.678645505221391e-10</v>
+        <v>1.683077827914889e-10</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>1.675271928789656e-10</v>
+        <v>1.679163938934237e-10</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>1.673007744534665e-10</v>
+        <v>1.676420116208969e-10</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>1.671556881363546e-10</v>
+        <v>1.674556101771845e-10</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>1.67062326818343e-10</v>
+        <v>1.673281637655629e-10</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>1.669910833901445e-10</v>
+        <v>1.672306465893081e-10</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>1.669123507424721e-10</v>
+        <v>1.671340328516963e-10</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>1.667965217660386e-10</v>
+        <v>1.670092967560035e-10</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>1.666139893515571e-10</v>
+        <v>1.66827412505506e-10</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>1.663351463897404e-10</v>
+        <v>1.665593543034799e-10</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>1.659303857713014e-10</v>
+        <v>1.661760963532012e-10</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>1.653702782677459e-10</v>
+        <v>1.656487853562887e-10</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>1.646480367690228e-10</v>
+        <v>1.64970525010628e-10</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>1.638014633559151e-10</v>
+        <v>1.641776589918089e-10</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.628735699855839e-10</v>
+        <v>1.633115832074592e-10</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.619073686151907e-10</v>
+        <v>1.624136935652063e-10</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>1.609458712018969e-10</v>
+        <v>1.615253859726779e-10</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.600320897028638e-10</v>
+        <v>1.606880563375015e-10</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.592090360752529e-10</v>
+        <v>1.599431005673047e-10</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.585197222762256e-10</v>
+        <v>1.59331914569715e-10</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.580071602629431e-10</v>
+        <v>1.588958942523601e-10</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.57714361992567e-10</v>
+        <v>1.586764355228676e-10</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.576843394222584e-10</v>
+        <v>1.587149342888648e-10</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.579601045091785e-10</v>
+        <v>1.59052786457979e-10</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.5858466921049e-10</v>
+        <v>1.597313879378393e-10</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.596010454833516e-10</v>
+        <v>1.607921346360705e-10</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.610522452849272e-10</v>
+        <v>1.622764224603026e-10</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>1.629812805723773e-10</v>
+        <v>1.642256473181624e-10</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>1.654311633028634e-10</v>
+        <v>1.666812051172776e-10</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>1.684449054335469e-10</v>
+        <v>1.696844917652756e-10</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>1.72065518921589e-10</v>
+        <v>1.732769031697841e-10</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>1.763360157241512e-10</v>
+        <v>1.774998352384305e-10</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>1.812994077983949e-10</v>
+        <v>1.823946838788425e-10</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>1.869987071014814e-10</v>
+        <v>1.880028449986477e-10</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>1.934769255905722e-10</v>
+        <v>1.943657145054736e-10</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>2.007770752228287e-10</v>
+        <v>2.015246883069479e-10</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>2.089421679554121e-10</v>
+        <v>2.09521162310698e-10</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>2.180152157454839e-10</v>
+        <v>2.183965324243515e-10</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>2.280392305502055e-10</v>
+        <v>2.281921945555361e-10</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>2.39049529684889e-10</v>
+        <v>2.389429602974649e-10</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>2.509967255674756e-10</v>
+        <v>2.506111591593691e-10</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>2.637789542984417e-10</v>
+        <v>2.63114216601628e-10</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>2.772935699746619e-10</v>
+        <v>2.763688889231848e-10</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>2.914379266930112e-10</v>
+        <v>2.902919324229834e-10</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>3.061093785503644e-10</v>
+        <v>3.048001033999675e-10</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>3.212052796435962e-10</v>
+        <v>3.198101581530806e-10</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>3.366229840695816e-10</v>
+        <v>3.352388529812664e-10</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>3.522598459251954e-10</v>
+        <v>3.510029441834686e-10</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>3.680132193073124e-10</v>
+        <v>3.670191880586307e-10</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>3.837746610008389e-10</v>
+        <v>3.831944326810372e-10</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>3.993896873306165e-10</v>
+        <v>3.993568380667431e-10</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>4.146818592038563e-10</v>
+        <v>4.152970400806883e-10</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>4.294746023134963e-10</v>
+        <v>4.308054434921936e-10</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>4.435913423524746e-10</v>
+        <v>4.4567245307058e-10</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>4.568555050137292e-10</v>
+        <v>4.596884735851683e-10</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>4.690905159901982e-10</v>
+        <v>4.726439098052793e-10</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>4.801198009748191e-10</v>
+        <v>4.843291665002337e-10</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>4.897667856605306e-10</v>
+        <v>4.945346484393525e-10</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>4.978548957402633e-10</v>
+        <v>5.030507603919494e-10</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>5.042075569069764e-10</v>
+        <v>5.096679071273669e-10</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>5.086481948535835e-10</v>
+        <v>5.141764934149009e-10</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>5.110002352730394e-10</v>
+        <v>5.163669240238891e-10</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>5.110871038582735e-10</v>
+        <v>5.160296037236444e-10</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>5.087769628085369e-10</v>
+        <v>5.13012303174177e-10</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>5.042149864527544e-10</v>
+        <v>5.075180073528555e-10</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>4.976522459429443e-10</v>
+        <v>4.998854933692189e-10</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>4.893400250919709e-10</v>
+        <v>4.904538110290855e-10</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>4.795296077126985e-10</v>
+        <v>4.795620101382737e-10</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>4.684722776179914e-10</v>
+        <v>4.675491405026022e-10</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>4.564193186207142e-10</v>
+        <v>4.547542519278896e-10</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>4.43622014533731e-10</v>
+        <v>4.415163942199542e-10</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>4.303316491699062e-10</v>
+        <v>4.281746171846146e-10</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>4.167974681407408e-10</v>
+        <v>4.150607286926202e-10</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>4.032245050641555e-10</v>
+        <v>4.023494469411587e-10</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>3.897750141653936e-10</v>
+        <v>3.900634906293976e-10</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>3.766094980859748e-10</v>
+        <v>3.782193549028233e-10</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>3.638884594674186e-10</v>
+        <v>3.668335349069215e-10</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>3.517724009512449e-10</v>
+        <v>3.559225257871789e-10</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>3.40421825178973e-10</v>
+        <v>3.455028226890816e-10</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>3.299972347921227e-10</v>
+        <v>3.355909207581157e-10</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>3.206591324322137e-10</v>
+        <v>3.262033151397676e-10</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>3.125677123664642e-10</v>
+        <v>3.173564891175369e-10</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>3.05782637756159e-10</v>
+        <v>3.090630589256472e-10</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>3.001188997947746e-10</v>
+        <v>3.013262291983269e-10</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>2.953549771846916e-10</v>
+        <v>2.941478000731474e-10</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>2.912693486282906e-10</v>
+        <v>2.875295716876796e-10</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>2.876404928279521e-10</v>
+        <v>2.814733441794949e-10</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>2.842468884860567e-10</v>
+        <v>2.75980917686164e-10</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>2.808670143049849e-10</v>
+        <v>2.710540923452583e-10</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>2.773126690491799e-10</v>
+        <v>2.666955344972329e-10</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>2.73651722681484e-10</v>
+        <v>2.629145674212421e-10</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>2.700707734787388e-10</v>
+        <v>2.597236009095391e-10</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>2.667570699670621e-10</v>
+        <v>2.571350616585412e-10</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>2.638978606725719e-10</v>
+        <v>2.551613763646656e-10</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>2.616803941213864e-10</v>
+        <v>2.538149717243297e-10</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>2.602890545097364e-10</v>
+        <v>2.531085803675999e-10</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>2.598165301543589e-10</v>
+        <v>2.530647287877098e-10</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>2.602466596124631e-10</v>
+        <v>2.537175695144904e-10</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>2.615569546755944e-10</v>
+        <v>2.551019308276303e-10</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>2.637249271352919e-10</v>
+        <v>2.572526410068097e-10</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>2.667280887831043e-10</v>
+        <v>2.602045283317194e-10</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>2.70543951410574e-10</v>
+        <v>2.639924210820433e-10</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>2.751500268092447e-10</v>
+        <v>2.68651147537467e-10</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>2.805230058810171e-10</v>
+        <v>2.74212939112012e-10</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>2.866200100776597e-10</v>
+        <v>2.806481197105388e-10</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>2.933782007993231e-10</v>
+        <v>2.878638700698531e-10</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>3.007338404266512e-10</v>
+        <v>2.957645268990579e-10</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>3.086231913402888e-10</v>
+        <v>3.042544269072563e-10</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>3.169825159208801e-10</v>
+        <v>3.132379068035514e-10</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>3.257480765490695e-10</v>
+        <v>3.226193032970462e-10</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>3.348561356055013e-10</v>
+        <v>3.323029530968438e-10</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>3.4424295547082e-10</v>
+        <v>3.421931929120473e-10</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>3.538457911642561e-10</v>
+        <v>3.521993501038353e-10</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>3.636091629617831e-10</v>
+        <v>3.622672792943135e-10</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>3.734808198867837e-10</v>
+        <v>3.723590681587673e-10</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>3.834085256111558e-10</v>
+        <v>3.824368780202768e-10</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>3.933400438067968e-10</v>
+        <v>3.924628702019213e-10</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>4.032231381456045e-10</v>
+        <v>4.023992060267806e-10</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>4.130055722994766e-10</v>
+        <v>4.122080468179342e-10</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>4.226351099403108e-10</v>
+        <v>4.218515538984618e-10</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>4.320595147400047e-10</v>
+        <v>4.312918885914432e-10</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>4.412257108047979e-10</v>
+        <v>4.404903165888534e-10</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>4.499986557566645e-10</v>
+        <v>4.493206634496747e-10</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>4.580937090552866e-10</v>
+        <v>4.574971665387184e-10</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>4.652103095078647e-10</v>
+        <v>4.647170794013381e-10</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>4.710478959215986e-10</v>
+        <v>4.706776555828867e-10</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>4.753059071036879e-10</v>
+        <v>4.750761486287173e-10</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>4.77683781861333e-10</v>
+        <v>4.776098120841835e-10</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>4.778809590017337e-10</v>
+        <v>4.77975899494638e-10</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>4.7559687733209e-10</v>
+        <v>4.758716644054342e-10</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>4.705311272858773e-10</v>
+        <v>4.709945109192819e-10</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>4.625172068823459e-10</v>
+        <v>4.631748067169725e-10</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>4.517681797717243e-10</v>
+        <v>4.5261980928819e-10</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>4.385638986295296e-10</v>
+        <v>4.396030943056225e-10</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>4.231842161313645e-10</v>
+        <v>4.243982374420419e-10</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>4.059090981821782e-10</v>
+        <v>4.072789274324994e-10</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>3.874112300554536e-10</v>
+        <v>3.889109929258739e-10</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>3.696352695306836e-10</v>
+        <v>3.712303582904455e-10</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>3.547829310023074e-10</v>
+        <v>3.564296252241877e-10</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>3.450559288647465e-10</v>
+        <v>3.467013954250564e-10</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>3.426559607925149e-10</v>
+        <v>3.442382540906496e-10</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>3.486658380119014e-10</v>
+        <v>3.501285920854248e-10</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>3.600191269902887e-10</v>
+        <v>3.613660393114031e-10</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>3.72687791248277e-10</v>
+        <v>3.739952495468414e-10</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>3.827210869957284e-10</v>
+        <v>3.841351590037512e-10</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>3.881759789972705e-10</v>
+        <v>3.898342198566527e-10</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>3.892538803573198e-10</v>
+        <v>3.912018145343993e-10</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>3.862608820498579e-10</v>
+        <v>3.884479265315557e-10</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>3.795030750488663e-10</v>
+        <v>3.817825393426867e-10</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>3.692865924962154e-10</v>
+        <v>3.714156876022557e-10</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>3.562066284140255e-10</v>
+        <v>3.579079699532807e-10</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>3.418376417145737e-10</v>
+        <v>3.430076069163359e-10</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>3.279612621496224e-10</v>
+        <v>3.287140693364347e-10</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>3.163411025984761e-10</v>
+        <v>3.170063670480522e-10</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>3.07531754502074e-10</v>
+        <v>3.08490474668314e-10</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>3.001362615974996e-10</v>
+        <v>3.015560754892263e-10</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>2.92580387900131e-10</v>
+        <v>2.943915236174726e-10</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>2.833214261321866e-10</v>
+        <v>2.85224831566785e-10</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>2.715867029640769e-10</v>
+        <v>2.732525996180064e-10</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>2.573993659941049e-10</v>
+        <v>2.586724519904403e-10</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>2.408192533134667e-10</v>
+        <v>2.41728162343886e-10</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>2.22009791988405e-10</v>
+        <v>2.227260926933576e-10</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>2.015127935160744e-10</v>
+        <v>2.022012245489368e-10</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>1.799564409848335e-10</v>
+        <v>1.807407250498064e-10</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>1.579689174830409e-10</v>
+        <v>1.589317613351492e-10</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.361784060990552e-10</v>
+        <v>1.373615005441481e-10</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.152130899212351e-10</v>
+        <v>1.166171098159858e-10</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>9.570115203793919e-11</v>
+        <v>9.728575628984512e-11</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>7.82707755375261e-11</v>
+        <v>7.9954607104909e-11</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>6.355014350836727e-11</v>
+        <v>6.521082940037308e-11</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>5.215853888138621e-11</v>
+        <v>5.363372124391576e-11</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>4.409448437662995e-11</v>
+        <v>4.525373575085395e-11</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>3.834082091059391e-11</v>
+        <v>3.920331127760942e-11</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>3.379337065847084e-11</v>
+        <v>3.453678068059148e-11</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>2.979495597340795e-11</v>
+        <v>3.06282377942308e-11</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>2.64002240283108e-11</v>
+        <v>2.736097938347848e-11</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>2.371061800383397e-11</v>
+        <v>2.466677104375645e-11</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>2.17042918641502e-11</v>
+        <v>2.249981444251959e-11</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>2.030421916931514e-11</v>
+        <v>2.082435293259395e-11</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>1.943311486565883e-11</v>
+        <v>1.960467692912254e-11</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>1.901369389951131e-11</v>
+        <v>1.880507684724832e-11</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>1.896867121720265e-11</v>
+        <v>1.838984310211429e-11</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>1.922080795621789e-11</v>
+        <v>1.832327476546552e-11</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>1.97085240555989e-11</v>
+        <v>1.857260549715681e-11</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>2.040862430422146e-11</v>
+        <v>1.911226259338268e-11</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>2.13036873853407e-11</v>
+        <v>1.991775542559938e-11</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>2.237629198221181e-11</v>
+        <v>2.096459336526313e-11</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>2.36090167780899e-11</v>
+        <v>2.222828578383018e-11</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>2.498444045623016e-11</v>
+        <v>2.368434205275676e-11</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>2.648514169988773e-11</v>
+        <v>2.530827154349911e-11</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>2.809369919231775e-11</v>
+        <v>2.707558362751346e-11</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>2.979269161677539e-11</v>
+        <v>2.896178767625605e-11</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>3.156469765651578e-11</v>
+        <v>3.09423930611831e-11</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>3.339229599479409e-11</v>
+        <v>3.299290915375086e-11</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>3.525806531486546e-11</v>
+        <v>3.508884532541556e-11</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>3.714458429998507e-11</v>
+        <v>3.720571094763345e-11</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>3.903443163340803e-11</v>
+        <v>3.931901539186076e-11</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>4.091018599838953e-11</v>
+        <v>4.140426802955371e-11</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>4.275442607818469e-11</v>
+        <v>4.343697823216854e-11</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>4.454973055604869e-11</v>
+        <v>4.539265537116149e-11</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>4.627867811523667e-11</v>
+        <v>4.72468088179888e-11</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>4.792384743900378e-11</v>
+        <v>4.897494794410671e-11</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>4.946807182957774e-11</v>
+        <v>5.055322212427527e-11</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>5.089895751613062e-11</v>
+        <v>5.196977783222322e-11</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>5.220834966221129e-11</v>
+        <v>5.322341641149684e-11</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>5.338824078031104e-11</v>
+        <v>5.431330957792469e-11</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>5.443062338292029e-11</v>
+        <v>5.523862904733456e-11</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>5.532748998253318e-11</v>
+        <v>5.599854653555746e-11</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>5.607083309163757e-11</v>
+        <v>5.659223375841904e-11</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>5.665264522272769e-11</v>
+        <v>5.701886243175021e-11</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>5.706491888829259e-11</v>
+        <v>5.727760427137786e-11</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>5.729964660082505e-11</v>
+        <v>5.736763099313157e-11</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>5.734882087281593e-11</v>
+        <v>5.728811431283962e-11</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>5.720443421675657e-11</v>
+        <v>5.703822594633058e-11</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>5.685847914513827e-11</v>
+        <v>5.661713760943303e-11</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>5.630294817045238e-11</v>
+        <v>5.602402101797556e-11</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>5.552983380519021e-11</v>
+        <v>5.525804788778674e-11</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>5.453112856184313e-11</v>
+        <v>5.431838993469519e-11</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>5.329882495290242e-11</v>
+        <v>5.320421887452944e-11</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>5.182491549085944e-11</v>
+        <v>5.191470642311811e-11</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>5.010139268820552e-11</v>
+        <v>5.044902429628977e-11</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>4.812024905743197e-11</v>
+        <v>4.880634420987301e-11</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>4.589770334907497e-11</v>
+        <v>4.699826002166519e-11</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>4.375616528358379e-11</v>
+        <v>4.519336675864183e-11</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>4.222791183161238e-11</v>
+        <v>4.366787007935149e-11</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>4.184931561325514e-11</v>
+        <v>4.270007570999292e-11</v>
       </c>
     </row>
   </sheetData>
